--- a/VGM_/EDI_Rejec/EDI rejection Check list_12th Sept 2022.xlsx
+++ b/VGM_/EDI_Rejec/EDI rejection Check list_12th Sept 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\VGM_\EDI_Rejec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4666D7E3-2E14-45DF-9CD4-8E9E7C3D29B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB393F4A-B0A5-48B2-9328-895A35338EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Sr No.</t>
   </si>
@@ -1329,9 +1329,6 @@
   </si>
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <t>wip</t>
   </si>
 </sst>
 </file>
@@ -5446,8 +5443,8 @@
   </sheetPr>
   <dimension ref="A6:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5621,7 +5618,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -5631,6 +5628,9 @@
       <c r="B23" s="17" t="s">
         <v>31</v>
       </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
@@ -5638,6 +5638,9 @@
       </c>
       <c r="B24" s="15" t="s">
         <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">

--- a/VGM_/EDI_Rejec/EDI rejection Check list_12th Sept 2022.xlsx
+++ b/VGM_/EDI_Rejec/EDI rejection Check list_12th Sept 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\VGM_\EDI_Rejec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB393F4A-B0A5-48B2-9328-895A35338EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D441B-1829-41BA-9D4C-C9C71697EC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5443,8 +5443,8 @@
   </sheetPr>
   <dimension ref="A6:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
